--- a/supporting_files/contacts_formatted_do_not_edit.xlsx
+++ b/supporting_files/contacts_formatted_do_not_edit.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,19 +31,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -70,14 +76,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffcccb"/>
+        <bgColor rgb="00ffcccb"/>
       </patternFill>
     </fill>
   </fills>
@@ -108,26 +126,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-      <protection hidden="0" locked="0"/>
-    </xf>
     <xf applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <protection hidden="0" locked="0"/>
     </xf>
     <xf applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -135,11 +145,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
       <protection hidden="0" locked="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyProtection="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+      <protection hidden="0" locked="0"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -449,89 +490,87 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E15" pane="bottomLeft" sqref="E15"/>
+      <selection activeCell="E7" pane="bottomLeft" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="15.3671875"/>
-    <col customWidth="1" max="2" min="2" style="3" width="18.5234375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="12"/>
-    <col customWidth="1" max="4" min="4" style="4" width="10.89453125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="4" width="11.5234375"/>
-    <col customWidth="1" max="6" min="6" style="9" width="18.15625"/>
-    <col customWidth="1" max="7" min="7" style="9" width="10.62890625"/>
-    <col customWidth="1" max="8" min="8" style="9" width="11.47265625"/>
-    <col customWidth="1" max="16384" min="9" style="9" width="8.83984375"/>
+    <col customWidth="1" max="1" min="1" style="2" width="15.3671875"/>
+    <col customWidth="1" max="2" min="2" style="1" width="18.5234375"/>
+    <col customWidth="1" max="3" min="3" style="2" width="12"/>
+    <col customWidth="1" max="4" min="4" style="2" width="10.89453125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="11.5234375"/>
+    <col customWidth="1" max="6" min="6" style="12" width="18.15625"/>
+    <col customWidth="1" max="7" min="7" style="7" width="10.62890625"/>
+    <col customWidth="1" max="8" min="8" style="7" width="11.47265625"/>
+    <col customWidth="1" max="16384" min="9" style="7" width="8.83984375"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.8" r="1" s="9">
-      <c r="A1" s="5" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="28.8" r="1" s="7">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Full Name</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Phone Number</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="11" t="inlineStr">
         <is>
           <t>Phone number formatted</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Gender formatted</t>
         </is>
       </c>
-      <c r="H1" s="8" t="n"/>
+      <c r="H1" s="6" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="n"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>832-585-2888</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Caryl</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Faulks</t>
+      <c r="A2" s="16" t="n"/>
+      <c r="B2" s="16" t="n">
+        <v>5129442224</v>
+      </c>
+      <c r="C2" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" s="16" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="E2" s="16" t="inlineStr">
+        <is>
+          <t>Diaz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8325852888</t>
+          <t>5129442224</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,63 +580,59 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>832-696-5773</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>Catherina</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Chowdhury</t>
+      <c r="A3" s="16" t="n"/>
+      <c r="B3" s="16" t="n">
+        <v>5129875421</v>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" s="16" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="inlineStr">
+        <is>
+          <t>Kim</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8326965773</t>
+          <t>5129875421</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>713-398-1164</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Catherine</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Fang</t>
+      <c r="A4" s="16" t="n"/>
+      <c r="B4" s="16" t="n">
+        <v>2542957260</v>
+      </c>
+      <c r="C4" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D4" s="16" t="inlineStr">
+        <is>
+          <t>aalaysiah</t>
+        </is>
+      </c>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t>morrison</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7133981164</t>
+          <t>2542957260</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -607,30 +642,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="n"/>
-      <c r="B5" s="10" t="inlineStr">
-        <is>
-          <t>512-468-1921</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D5" s="10" t="inlineStr">
-        <is>
-          <t>Caycay</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="inlineStr">
-        <is>
-          <t>Dickerson</t>
+      <c r="A5" s="16" t="n"/>
+      <c r="B5" s="16" t="n">
+        <v>2102436579</v>
+      </c>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D5" s="16" t="inlineStr">
+        <is>
+          <t>Hailey</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="inlineStr">
+        <is>
+          <t>Giles</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5124681921</t>
+          <t>2102436579</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -640,325 +673,917 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>512-660-1320</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>Charles</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>Smith</t>
+      <c r="A6" s="16" t="n"/>
+      <c r="B6" s="16" t="n">
+        <v>8177264771</v>
+      </c>
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D6" s="16" t="inlineStr">
+        <is>
+          <t>Rylie</t>
+        </is>
+      </c>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>Riddle</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5126601320</t>
+          <t>8177264771</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="n"/>
+      <c r="B7" s="16" t="n">
+        <v>6828082508</v>
+      </c>
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D7" s="16" t="inlineStr">
+        <is>
+          <t>Amari</t>
+        </is>
+      </c>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>Mapp</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6828082508</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>male</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>512-660-1320</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>Charles</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>Smith</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5126601320</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="16" t="n"/>
+      <c r="B8" s="16" t="n">
+        <v>8066761132</v>
+      </c>
+      <c r="C8" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>Kalli</t>
+        </is>
+      </c>
+      <c r="E8" s="16" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8066761132</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="16" t="n"/>
+      <c r="B9" s="16" t="n">
+        <v>4436190267</v>
+      </c>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D9" s="16" t="inlineStr">
+        <is>
+          <t>Patrick</t>
+        </is>
+      </c>
+      <c r="E9" s="16" t="inlineStr">
+        <is>
+          <t>Harper</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4436190267</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="11" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>936-897-1462</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>Charlie</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>Le</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>9368971462</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="16" t="n"/>
+      <c r="B10" s="16" t="n">
+        <v>2107183423</v>
+      </c>
+      <c r="C10" s="16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D10" s="16" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="E10" s="16" t="inlineStr">
+        <is>
+          <t>Aguilar</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2107183423</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>281-881-1066</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Chase</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>Berry</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2818811066</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>713-962-4632</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>Chloe</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>Matinez</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7139624632</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>713-933-5315</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E11" s="1" t="inlineStr">
-        <is>
-          <t>Lee</t>
+      <c r="A11" s="16" t="n"/>
+      <c r="B11" s="16" t="n">
+        <v>9568026229</v>
+      </c>
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D11" s="16" t="inlineStr">
+        <is>
+          <t>Miranda</t>
+        </is>
+      </c>
+      <c r="E11" s="16" t="inlineStr">
+        <is>
+          <t>Garza</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7139335315</t>
+          <t>9568026229</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="16" t="n"/>
+      <c r="B12" s="16" t="n">
+        <v>8066789201</v>
+      </c>
+      <c r="C12" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D12" s="16" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="E12" s="16" t="inlineStr">
+        <is>
+          <t>Prestwood</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8066789201</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="16" t="n"/>
+      <c r="B13" s="16" t="n">
+        <v>8324210986</v>
+      </c>
+      <c r="C13" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D13" s="16" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="E13" s="16" t="inlineStr">
+        <is>
+          <t>Laynez</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8324210986</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="n"/>
+      <c r="B14" s="16" t="n">
+        <v>2144253105</v>
+      </c>
+      <c r="C14" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="E14" s="16" t="inlineStr">
+        <is>
+          <t>Pietersz</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2144253105</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="n"/>
+      <c r="B15" s="16" t="n">
+        <v>2147188294</v>
+      </c>
+      <c r="C15" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D15" s="16" t="inlineStr">
+        <is>
+          <t>Lulia</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>Leul</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2147188294</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="n"/>
+      <c r="B16" s="16" t="n">
+        <v>2109989692</v>
+      </c>
+      <c r="C16" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D16" s="16" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>Mahavier</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2109989692</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="n"/>
+      <c r="B17" s="16" t="n">
+        <v>2067957492</v>
+      </c>
+      <c r="C17" s="16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>Whalen</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2067957492</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>male</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="11" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>469-999-6464</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>Chris</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>Mathew</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4699996464</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="D14" s="1" t="n"/>
-      <c r="E14" s="1" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="D15" s="1" t="n"/>
-      <c r="E15" s="1" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="D16" s="1" t="n"/>
-      <c r="E16" s="1" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="n"/>
-      <c r="B17" s="2" t="n"/>
-      <c r="D17" s="1" t="n"/>
-      <c r="E17" s="1" t="n"/>
-    </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="D18" s="1" t="n"/>
-      <c r="E18" s="1" t="n"/>
+      <c r="A18" s="16" t="n"/>
+      <c r="B18" s="16" t="n">
+        <v>5126355765</v>
+      </c>
+      <c r="C18" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>Caitie</t>
+        </is>
+      </c>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>Huff</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5126355765</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="D19" s="1" t="n"/>
-      <c r="E19" s="1" t="n"/>
+      <c r="A19" s="16" t="n"/>
+      <c r="B19" s="16" t="n">
+        <v>2107925272</v>
+      </c>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>Samantha</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>Stein</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2107925272</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="B20" s="2" t="n"/>
-      <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
+      <c r="A20" s="16" t="n"/>
+      <c r="B20" s="16" t="n">
+        <v>8328363654</v>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D20" s="16" t="inlineStr">
+        <is>
+          <t>Elsy</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>Blanco</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8328363654</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
+      <c r="A21" s="16" t="n"/>
+      <c r="B21" s="16" t="n">
+        <v>4696051471</v>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>Joyce</t>
+        </is>
+      </c>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>He</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4696051471</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="B22" s="2" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
+      <c r="A22" s="16" t="n"/>
+      <c r="B22" s="16" t="n">
+        <v>2815434485</v>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>Lauren</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>Oevermann</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2815434485</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
+      <c r="A23" s="16" t="n"/>
+      <c r="B23" s="16" t="n">
+        <v>7132778108</v>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D23" s="16" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="E23" s="16" t="inlineStr">
+        <is>
+          <t>Faulkner</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7132778108</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="B24" s="2" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
+      <c r="A24" s="16" t="n"/>
+      <c r="B24" s="16" t="n">
+        <v>3619468307</v>
+      </c>
+      <c r="C24" s="16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>Jeanelle</t>
+        </is>
+      </c>
+      <c r="E24" s="16" t="inlineStr">
+        <is>
+          <t>Oloyo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3619468307</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
+      <c r="A25" s="18" t="n"/>
+      <c r="B25" s="19" t="n"/>
+      <c r="C25" s="20" t="n"/>
+      <c r="D25" s="21" t="n"/>
+      <c r="E25" s="21" t="n"/>
+      <c r="F25" s="22" t="n"/>
+      <c r="G25" s="22" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1" t="n"/>
+      <c r="A26" s="18" t="n"/>
+      <c r="B26" s="19" t="n"/>
+      <c r="C26" s="20" t="n"/>
+      <c r="D26" s="21" t="n"/>
+      <c r="E26" s="21" t="n"/>
+      <c r="F26" s="22" t="n"/>
+      <c r="G26" s="22" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="B27" s="2" t="n"/>
-      <c r="D27" s="1" t="n"/>
-      <c r="E27" s="1" t="n"/>
+      <c r="A27" s="18" t="n"/>
+      <c r="B27" s="19" t="n"/>
+      <c r="C27" s="20" t="n"/>
+      <c r="D27" s="21" t="n"/>
+      <c r="E27" s="21" t="n"/>
+      <c r="F27" s="22" t="n"/>
+      <c r="G27" s="22" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="18" t="n"/>
+      <c r="B28" s="19" t="n"/>
+      <c r="C28" s="20" t="n"/>
+      <c r="D28" s="21" t="n"/>
+      <c r="E28" s="21" t="n"/>
+      <c r="F28" s="22" t="n"/>
+      <c r="G28" s="22" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="18" t="n"/>
+      <c r="B29" s="19" t="n"/>
+      <c r="C29" s="20" t="n"/>
+      <c r="D29" s="21" t="n"/>
+      <c r="E29" s="21" t="n"/>
+      <c r="F29" s="22" t="n"/>
+      <c r="G29" s="22" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="18" t="n"/>
+      <c r="B30" s="19" t="n"/>
+      <c r="C30" s="20" t="n"/>
+      <c r="D30" s="21" t="n"/>
+      <c r="E30" s="21" t="n"/>
+      <c r="F30" s="22" t="n"/>
+      <c r="G30" s="22" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="18" t="n"/>
+      <c r="B31" s="19" t="n"/>
+      <c r="C31" s="20" t="n"/>
+      <c r="D31" s="21" t="n"/>
+      <c r="E31" s="21" t="n"/>
+      <c r="F31" s="22" t="n"/>
+      <c r="G31" s="22" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="18" t="n"/>
+      <c r="B32" s="19" t="n"/>
+      <c r="C32" s="20" t="n"/>
+      <c r="D32" s="21" t="n"/>
+      <c r="E32" s="21" t="n"/>
+      <c r="F32" s="22" t="n"/>
+      <c r="G32" s="22" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="18" t="n"/>
+      <c r="B33" s="19" t="n"/>
+      <c r="C33" s="20" t="n"/>
+      <c r="D33" s="21" t="n"/>
+      <c r="E33" s="21" t="n"/>
+      <c r="F33" s="22" t="n"/>
+      <c r="G33" s="22" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="18" t="n"/>
+      <c r="B34" s="19" t="n"/>
+      <c r="C34" s="20" t="n"/>
+      <c r="D34" s="21" t="n"/>
+      <c r="E34" s="21" t="n"/>
+      <c r="F34" s="22" t="n"/>
+      <c r="G34" s="22" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="18" t="n"/>
+      <c r="B35" s="19" t="n"/>
+      <c r="C35" s="20" t="n"/>
+      <c r="D35" s="21" t="n"/>
+      <c r="E35" s="21" t="n"/>
+      <c r="F35" s="22" t="n"/>
+      <c r="G35" s="22" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="22" t="n"/>
+      <c r="B36" s="19" t="n"/>
+      <c r="C36" s="20" t="n"/>
+      <c r="D36" s="21" t="n"/>
+      <c r="E36" s="21" t="n"/>
+      <c r="F36" s="22" t="n"/>
+      <c r="G36" s="22" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="22" t="n"/>
+      <c r="B37" s="19" t="n"/>
+      <c r="C37" s="20" t="n"/>
+      <c r="D37" s="21" t="n"/>
+      <c r="E37" s="21" t="n"/>
+      <c r="F37" s="22" t="n"/>
+      <c r="G37" s="22" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="22" t="n"/>
+      <c r="B38" s="19" t="n"/>
+      <c r="C38" s="20" t="n"/>
+      <c r="D38" s="21" t="n"/>
+      <c r="E38" s="21" t="n"/>
+      <c r="F38" s="22" t="n"/>
+      <c r="G38" s="22" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="22" t="n"/>
+      <c r="B39" s="19" t="n"/>
+      <c r="C39" s="20" t="n"/>
+      <c r="D39" s="21" t="n"/>
+      <c r="E39" s="21" t="n"/>
+      <c r="F39" s="22" t="n"/>
+      <c r="G39" s="22" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="22" t="n"/>
+      <c r="B40" s="19" t="n"/>
+      <c r="C40" s="20" t="n"/>
+      <c r="D40" s="21" t="n"/>
+      <c r="E40" s="21" t="n"/>
+      <c r="F40" s="22" t="n"/>
+      <c r="G40" s="22" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="22" t="n"/>
+      <c r="B41" s="19" t="n"/>
+      <c r="C41" s="20" t="n"/>
+      <c r="D41" s="21" t="n"/>
+      <c r="E41" s="21" t="n"/>
+      <c r="F41" s="22" t="n"/>
+      <c r="G41" s="22" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="22" t="n"/>
+      <c r="B42" s="19" t="n"/>
+      <c r="C42" s="20" t="n"/>
+      <c r="D42" s="21" t="n"/>
+      <c r="E42" s="21" t="n"/>
+      <c r="F42" s="22" t="n"/>
+      <c r="G42" s="22" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="22" t="n"/>
+      <c r="B43" s="19" t="n"/>
+      <c r="C43" s="20" t="n"/>
+      <c r="D43" s="21" t="n"/>
+      <c r="E43" s="21" t="n"/>
+      <c r="F43" s="22" t="n"/>
+      <c r="G43" s="22" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="22" t="n"/>
+      <c r="B44" s="19" t="n"/>
+      <c r="C44" s="20" t="n"/>
+      <c r="D44" s="21" t="n"/>
+      <c r="E44" s="21" t="n"/>
+      <c r="F44" s="22" t="n"/>
+      <c r="G44" s="22" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="22" t="n"/>
+      <c r="B45" s="19" t="n"/>
+      <c r="C45" s="20" t="n"/>
+      <c r="D45" s="21" t="n"/>
+      <c r="E45" s="21" t="n"/>
+      <c r="F45" s="22" t="n"/>
+      <c r="G45" s="22" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="22" t="n"/>
+      <c r="B46" s="19" t="n"/>
+      <c r="C46" s="20" t="n"/>
+      <c r="D46" s="21" t="n"/>
+      <c r="E46" s="21" t="n"/>
+      <c r="F46" s="22" t="n"/>
+      <c r="G46" s="22" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="22" t="n"/>
+      <c r="B47" s="19" t="n"/>
+      <c r="C47" s="20" t="n"/>
+      <c r="D47" s="21" t="n"/>
+      <c r="E47" s="21" t="n"/>
+      <c r="F47" s="22" t="n"/>
+      <c r="G47" s="22" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="22" t="n"/>
+      <c r="B48" s="19" t="n"/>
+      <c r="C48" s="20" t="n"/>
+      <c r="D48" s="21" t="n"/>
+      <c r="E48" s="21" t="n"/>
+      <c r="F48" s="22" t="n"/>
+      <c r="G48" s="22" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="22" t="n"/>
+      <c r="B49" s="19" t="n"/>
+      <c r="C49" s="20" t="n"/>
+      <c r="D49" s="21" t="n"/>
+      <c r="E49" s="21" t="n"/>
+      <c r="F49" s="22" t="n"/>
+      <c r="G49" s="22" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="22" t="n"/>
+      <c r="B50" s="19" t="n"/>
+      <c r="C50" s="20" t="n"/>
+      <c r="D50" s="21" t="n"/>
+      <c r="E50" s="21" t="n"/>
+      <c r="F50" s="22" t="n"/>
+      <c r="G50" s="22" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="22" t="n"/>
+      <c r="B51" s="19" t="n"/>
+      <c r="C51" s="20" t="n"/>
+      <c r="D51" s="21" t="n"/>
+      <c r="E51" s="21" t="n"/>
+      <c r="F51" s="22" t="n"/>
+      <c r="G51" s="22" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="22" t="n"/>
+      <c r="B52" s="19" t="n"/>
+      <c r="C52" s="20" t="n"/>
+      <c r="D52" s="21" t="n"/>
+      <c r="E52" s="21" t="n"/>
+      <c r="F52" s="22" t="n"/>
+      <c r="G52" s="22" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="22" t="n"/>
+      <c r="B53" s="19" t="n"/>
+      <c r="C53" s="20" t="n"/>
+      <c r="D53" s="21" t="n"/>
+      <c r="E53" s="21" t="n"/>
+      <c r="F53" s="22" t="n"/>
+      <c r="G53" s="22" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="22" t="n"/>
+      <c r="B54" s="19" t="n"/>
+      <c r="C54" s="20" t="n"/>
+      <c r="D54" s="21" t="n"/>
+      <c r="E54" s="21" t="n"/>
+      <c r="F54" s="22" t="n"/>
+      <c r="G54" s="22" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="22" t="n"/>
+      <c r="B55" s="19" t="n"/>
+      <c r="C55" s="20" t="n"/>
+      <c r="D55" s="21" t="n"/>
+      <c r="E55" s="21" t="n"/>
+      <c r="F55" s="22" t="n"/>
+      <c r="G55" s="22" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="22" t="n"/>
+      <c r="B56" s="19" t="n"/>
+      <c r="C56" s="20" t="n"/>
+      <c r="D56" s="21" t="n"/>
+      <c r="E56" s="21" t="n"/>
+      <c r="F56" s="22" t="n"/>
+      <c r="G56" s="22" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="22" t="n"/>
+      <c r="B57" s="19" t="n"/>
+      <c r="C57" s="20" t="n"/>
+      <c r="D57" s="21" t="n"/>
+      <c r="E57" s="21" t="n"/>
+      <c r="F57" s="22" t="n"/>
+      <c r="G57" s="22" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="22" t="n"/>
+      <c r="B58" s="19" t="n"/>
+      <c r="C58" s="20" t="n"/>
+      <c r="D58" s="21" t="n"/>
+      <c r="E58" s="21" t="n"/>
+      <c r="F58" s="22" t="n"/>
+      <c r="G58" s="22" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="22" t="n"/>
+      <c r="B59" s="19" t="n"/>
+      <c r="C59" s="20" t="n"/>
+      <c r="D59" s="21" t="n"/>
+      <c r="E59" s="21" t="n"/>
+      <c r="F59" s="22" t="n"/>
+      <c r="G59" s="22" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="22" t="n"/>
+      <c r="B60" s="19" t="n"/>
+      <c r="C60" s="20" t="n"/>
+      <c r="D60" s="21" t="n"/>
+      <c r="E60" s="21" t="n"/>
+      <c r="F60" s="22" t="n"/>
+      <c r="G60" s="22" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/supporting_files/contacts_formatted_do_not_edit.xlsx
+++ b/supporting_files/contacts_formatted_do_not_edit.xlsx
@@ -82,14 +82,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="00ffcccb"/>
+        <bgColor rgb="00ffcccb"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffcccb"/>
-        <bgColor rgb="00ffcccb"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <protection hidden="0" locked="0"/>
@@ -135,9 +135,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -153,15 +150,17 @@
       <protection hidden="0" locked="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,27 +472,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="C6" pane="bottomLeft" sqref="C6"/>
+      <selection activeCell="F15" pane="bottomLeft" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="15.3671875"/>
     <col customWidth="1" max="2" min="2" style="1" width="18.5234375"/>
-    <col customWidth="1" max="3" min="3" style="2" width="12"/>
-    <col customWidth="1" max="4" min="4" style="2" width="10.89453125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="11.5234375"/>
-    <col customWidth="1" max="6" min="6" style="11" width="18.15625"/>
-    <col customWidth="1" max="7" min="7" style="7" width="10.62890625"/>
-    <col customWidth="1" max="8" min="8" style="7" width="11.47265625"/>
-    <col customWidth="1" max="16384" min="9" style="7" width="8.83984375"/>
+    <col customWidth="1" max="5" min="3" style="2" width="12"/>
+    <col customWidth="1" max="6" min="6" style="2" width="10.89453125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="11.5234375"/>
+    <col customWidth="1" max="8" min="8" style="10" width="18.15625"/>
+    <col customWidth="1" max="9" min="9" style="6" width="10.62890625"/>
+    <col customWidth="1" max="10" min="10" style="6" width="11.47265625"/>
+    <col customWidth="1" max="16384" min="11" style="6" width="8.83984375"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="28.8" r="1" s="7">
+    <row customFormat="1" customHeight="1" ht="28.8" r="1" s="6">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Full Name</t>
@@ -511,25 +510,39 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>Phone number formatted</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Gender formatted</t>
         </is>
       </c>
-      <c r="H1" s="6" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Year formatted</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="n"/>
@@ -541,22 +554,30 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="D2" s="13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="12" t="inlineStr">
+        <is>
+          <t>fresh</t>
+        </is>
+      </c>
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>Paula</t>
         </is>
       </c>
-      <c r="E2" s="13" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>Diaz</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>5129442224</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -572,24 +593,39 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D3" s="13" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="E3" s="12" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="E3" s="13" t="inlineStr">
+      <c r="G3" s="13" t="inlineStr">
         <is>
           <t>Kim</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>5129875421</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>male</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -603,24 +639,39 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>fre</t>
+        </is>
+      </c>
+      <c r="E4" s="12" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>aalaysiah</t>
         </is>
       </c>
-      <c r="E4" s="13" t="inlineStr">
+      <c r="G4" s="13" t="inlineStr">
         <is>
           <t>morrison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>2542957260</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -634,24 +685,35 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
+      <c r="D5" s="14" t="inlineStr">
+        <is>
+          <t>soph</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>Hailey</t>
         </is>
       </c>
-      <c r="E5" s="13" t="inlineStr">
+      <c r="G5" s="13" t="inlineStr">
         <is>
           <t>Giles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>2102436579</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -665,24 +727,35 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>senior</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="n"/>
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>Rylie</t>
         </is>
       </c>
-      <c r="E6" s="13" t="inlineStr">
+      <c r="G6" s="13" t="inlineStr">
         <is>
           <t>Riddle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>8177264771</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>female</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
     </row>
@@ -696,24 +769,35 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D7" s="13" t="inlineStr">
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>junior</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="n"/>
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>Amari</t>
         </is>
       </c>
-      <c r="E7" s="13" t="inlineStr">
+      <c r="G7" s="13" t="inlineStr">
         <is>
           <t>Mapp</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>6828082508</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>male</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -727,22 +811,24 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D8" s="13" t="inlineStr">
+      <c r="D8" s="14" t="n"/>
+      <c r="E8" s="11" t="n"/>
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>Patrick</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="G8" s="13" t="inlineStr">
         <is>
           <t>Harper</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>4436190267</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -758,22 +844,24 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D9" s="13" t="inlineStr">
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="11" t="n"/>
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>Luis</t>
         </is>
       </c>
-      <c r="E9" s="13" t="inlineStr">
+      <c r="G9" s="13" t="inlineStr">
         <is>
           <t>Aguilar</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>2107183423</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -789,22 +877,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D10" s="13" t="inlineStr">
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="11" t="n"/>
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>Miranda</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
+      <c r="G10" s="13" t="inlineStr">
         <is>
           <t>Garza</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>9568026229</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -820,22 +910,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D11" s="13" t="inlineStr">
+      <c r="D11" s="13" t="n"/>
+      <c r="E11" s="11" t="n"/>
+      <c r="F11" s="13" t="inlineStr">
         <is>
           <t>Sara</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="G11" s="13" t="inlineStr">
         <is>
           <t>Quintanilla</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>4097951028</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -851,22 +943,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D12" s="13" t="inlineStr">
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="11" t="n"/>
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>Anna</t>
         </is>
       </c>
-      <c r="E12" s="13" t="inlineStr">
+      <c r="G12" s="13" t="inlineStr">
         <is>
           <t>Prestwood</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>8066789201</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -882,22 +976,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="11" t="n"/>
+      <c r="F13" s="13" t="inlineStr">
         <is>
           <t>Emily</t>
         </is>
       </c>
-      <c r="E13" s="13" t="inlineStr">
+      <c r="G13" s="13" t="inlineStr">
         <is>
           <t>Pietersz</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>2144253105</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -913,22 +1009,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="11" t="n"/>
+      <c r="F14" s="13" t="inlineStr">
         <is>
           <t>Lulia</t>
         </is>
       </c>
-      <c r="E14" s="13" t="inlineStr">
+      <c r="G14" s="13" t="inlineStr">
         <is>
           <t>Leul</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>2147188294</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -944,22 +1042,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
+      <c r="D15" s="13" t="n"/>
+      <c r="E15" s="11" t="n"/>
+      <c r="F15" s="13" t="inlineStr">
         <is>
           <t>Julia</t>
         </is>
       </c>
-      <c r="E15" s="13" t="inlineStr">
+      <c r="G15" s="13" t="inlineStr">
         <is>
           <t>Mahavier</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>2109989692</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -975,22 +1075,24 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="11" t="n"/>
+      <c r="F16" s="13" t="inlineStr">
         <is>
           <t>Joshua</t>
         </is>
       </c>
-      <c r="E16" s="13" t="inlineStr">
+      <c r="G16" s="13" t="inlineStr">
         <is>
           <t>Whalen</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>2067957492</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1006,22 +1108,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="11" t="n"/>
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>Caitie</t>
         </is>
       </c>
-      <c r="E17" s="13" t="inlineStr">
+      <c r="G17" s="13" t="inlineStr">
         <is>
           <t>Huff</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>5126355765</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1037,22 +1141,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="11" t="n"/>
+      <c r="F18" s="13" t="inlineStr">
         <is>
           <t>Samantha</t>
         </is>
       </c>
-      <c r="E18" s="13" t="inlineStr">
+      <c r="G18" s="13" t="inlineStr">
         <is>
           <t>Stein</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>2107925272</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1068,22 +1174,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D19" s="13" t="inlineStr">
+      <c r="D19" s="13" t="n"/>
+      <c r="E19" s="11" t="n"/>
+      <c r="F19" s="13" t="inlineStr">
         <is>
           <t>Elsy</t>
         </is>
       </c>
-      <c r="E19" s="13" t="inlineStr">
+      <c r="G19" s="13" t="inlineStr">
         <is>
           <t>Blanco</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>8328363654</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1099,22 +1207,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D20" s="13" t="inlineStr">
+      <c r="D20" s="13" t="n"/>
+      <c r="E20" s="11" t="n"/>
+      <c r="F20" s="13" t="inlineStr">
         <is>
           <t>Jeanelle</t>
         </is>
       </c>
-      <c r="E20" s="13" t="inlineStr">
+      <c r="G20" s="13" t="inlineStr">
         <is>
           <t>Oloyo</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>3619468307</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1130,22 +1240,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D21" s="13" t="inlineStr">
+      <c r="D21" s="13" t="n"/>
+      <c r="E21" s="11" t="n"/>
+      <c r="F21" s="13" t="inlineStr">
         <is>
           <t>Lauren</t>
         </is>
       </c>
-      <c r="E21" s="13" t="inlineStr">
+      <c r="G21" s="13" t="inlineStr">
         <is>
           <t>Oevermann</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>2815434485</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1161,22 +1273,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D22" s="13" t="inlineStr">
+      <c r="D22" s="13" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="13" t="inlineStr">
         <is>
           <t>Connie</t>
         </is>
       </c>
-      <c r="E22" s="13" t="inlineStr">
+      <c r="G22" s="13" t="inlineStr">
         <is>
           <t>Mai</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>9729750941</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1192,22 +1306,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="13" t="n"/>
+      <c r="E23" s="11" t="n"/>
+      <c r="F23" s="13" t="inlineStr">
         <is>
           <t>Alyssa</t>
         </is>
       </c>
-      <c r="E23" s="13" t="inlineStr">
+      <c r="G23" s="13" t="inlineStr">
         <is>
           <t>Nunn</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>9366155632</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1223,22 +1339,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D24" s="13" t="inlineStr">
+      <c r="D24" s="13" t="n"/>
+      <c r="E24" s="11" t="n"/>
+      <c r="F24" s="13" t="inlineStr">
         <is>
           <t>Genevieve</t>
         </is>
       </c>
-      <c r="E24" s="13" t="inlineStr">
+      <c r="G24" s="13" t="inlineStr">
         <is>
           <t>Clemons</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>5127740651</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1254,22 +1372,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D25" s="13" t="inlineStr">
+      <c r="D25" s="13" t="n"/>
+      <c r="E25" s="11" t="n"/>
+      <c r="F25" s="13" t="inlineStr">
         <is>
           <t>Isabelle</t>
         </is>
       </c>
-      <c r="E25" s="13" t="inlineStr">
+      <c r="G25" s="13" t="inlineStr">
         <is>
           <t>Warrington</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>2107764291</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1285,22 +1405,24 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D26" s="13" t="inlineStr">
+      <c r="D26" s="13" t="n"/>
+      <c r="E26" s="11" t="n"/>
+      <c r="F26" s="13" t="inlineStr">
         <is>
           <t>bryson</t>
         </is>
       </c>
-      <c r="E26" s="13" t="inlineStr">
+      <c r="G26" s="13" t="inlineStr">
         <is>
           <t>thomas</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>5126889568</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1316,22 +1438,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D27" s="13" t="inlineStr">
+      <c r="D27" s="13" t="n"/>
+      <c r="E27" s="11" t="n"/>
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>Arianne</t>
         </is>
       </c>
-      <c r="E27" s="13" t="inlineStr">
+      <c r="G27" s="13" t="inlineStr">
         <is>
           <t>Ohman</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>2144762616</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1347,22 +1471,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="13" t="n"/>
+      <c r="E28" s="11" t="n"/>
+      <c r="F28" s="13" t="inlineStr">
         <is>
           <t>Elizabeth</t>
         </is>
       </c>
-      <c r="E28" s="13" t="inlineStr">
+      <c r="G28" s="13" t="inlineStr">
         <is>
           <t>Kemp</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>4614611617</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1378,22 +1504,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D29" s="13" t="inlineStr">
+      <c r="D29" s="13" t="n"/>
+      <c r="E29" s="11" t="n"/>
+      <c r="F29" s="13" t="inlineStr">
         <is>
           <t>Joanna</t>
         </is>
       </c>
-      <c r="E29" s="13" t="inlineStr">
+      <c r="G29" s="13" t="inlineStr">
         <is>
           <t>Liu</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>3619456914</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1409,22 +1537,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D30" s="13" t="inlineStr">
+      <c r="D30" s="13" t="n"/>
+      <c r="E30" s="11" t="n"/>
+      <c r="F30" s="13" t="inlineStr">
         <is>
           <t>Samantha</t>
         </is>
       </c>
-      <c r="E30" s="13" t="inlineStr">
+      <c r="G30" s="13" t="inlineStr">
         <is>
           <t>Myers</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>2108457189</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1440,22 +1570,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D31" s="13" t="inlineStr">
+      <c r="D31" s="13" t="n"/>
+      <c r="E31" s="11" t="n"/>
+      <c r="F31" s="13" t="inlineStr">
         <is>
           <t>Sophie</t>
         </is>
       </c>
-      <c r="E31" s="13" t="inlineStr">
+      <c r="G31" s="13" t="inlineStr">
         <is>
           <t>O’Shields</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>8326847483</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1471,22 +1603,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D32" s="13" t="inlineStr">
+      <c r="D32" s="13" t="n"/>
+      <c r="E32" s="11" t="n"/>
+      <c r="F32" s="13" t="inlineStr">
         <is>
           <t>Megan</t>
         </is>
       </c>
-      <c r="E32" s="13" t="inlineStr">
+      <c r="G32" s="13" t="inlineStr">
         <is>
           <t>Gross</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>5128105776</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1502,22 +1636,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D33" s="13" t="inlineStr">
+      <c r="D33" s="13" t="n"/>
+      <c r="E33" s="11" t="n"/>
+      <c r="F33" s="13" t="inlineStr">
         <is>
           <t>Rashi</t>
         </is>
       </c>
-      <c r="E33" s="13" t="inlineStr">
+      <c r="G33" s="13" t="inlineStr">
         <is>
           <t>Agarwal</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>2149956490</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1533,22 +1669,24 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D34" s="13" t="inlineStr">
+      <c r="D34" s="13" t="n"/>
+      <c r="E34" s="11" t="n"/>
+      <c r="F34" s="13" t="inlineStr">
         <is>
           <t>Caleb</t>
         </is>
       </c>
-      <c r="E34" s="13" t="inlineStr">
+      <c r="G34" s="13" t="inlineStr">
         <is>
           <t>King</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>8323595785</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1564,22 +1702,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D35" s="13" t="inlineStr">
+      <c r="D35" s="13" t="n"/>
+      <c r="E35" s="11" t="n"/>
+      <c r="F35" s="13" t="inlineStr">
         <is>
           <t>sneha</t>
         </is>
       </c>
-      <c r="E35" s="13" t="inlineStr">
+      <c r="G35" s="13" t="inlineStr">
         <is>
           <t>reddy</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>3616589810</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1595,22 +1735,24 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D36" s="13" t="inlineStr">
+      <c r="D36" s="13" t="n"/>
+      <c r="E36" s="11" t="n"/>
+      <c r="F36" s="13" t="inlineStr">
         <is>
           <t>Julyen</t>
         </is>
       </c>
-      <c r="E36" s="13" t="inlineStr">
+      <c r="G36" s="13" t="inlineStr">
         <is>
           <t>Sklavos</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>5129975898</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1626,22 +1768,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D37" s="13" t="inlineStr">
+      <c r="D37" s="13" t="n"/>
+      <c r="E37" s="11" t="n"/>
+      <c r="F37" s="13" t="inlineStr">
         <is>
           <t>Athena</t>
         </is>
       </c>
-      <c r="E37" s="13" t="inlineStr">
+      <c r="G37" s="13" t="inlineStr">
         <is>
           <t>Hawkins</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>4694752375</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1657,22 +1801,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D38" s="13" t="inlineStr">
+      <c r="D38" s="13" t="n"/>
+      <c r="E38" s="11" t="n"/>
+      <c r="F38" s="13" t="inlineStr">
         <is>
           <t>Morgan</t>
         </is>
       </c>
-      <c r="E38" s="13" t="inlineStr">
+      <c r="G38" s="13" t="inlineStr">
         <is>
           <t>Mestan</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>4696171489</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1688,22 +1834,24 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D39" s="13" t="inlineStr">
+      <c r="D39" s="13" t="n"/>
+      <c r="E39" s="11" t="n"/>
+      <c r="F39" s="13" t="inlineStr">
         <is>
           <t>Hsiang An</t>
         </is>
       </c>
-      <c r="E39" s="13" t="inlineStr">
+      <c r="G39" s="13" t="inlineStr">
         <is>
           <t>Kuo</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>8308220360</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1719,22 +1867,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D40" s="13" t="inlineStr">
+      <c r="D40" s="13" t="n"/>
+      <c r="E40" s="11" t="n"/>
+      <c r="F40" s="13" t="inlineStr">
         <is>
           <t>Tara</t>
         </is>
       </c>
-      <c r="E40" s="13" t="inlineStr">
+      <c r="G40" s="13" t="inlineStr">
         <is>
           <t>Porras</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>8328083248</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1750,22 +1900,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D41" s="13" t="inlineStr">
+      <c r="D41" s="13" t="n"/>
+      <c r="E41" s="11" t="n"/>
+      <c r="F41" s="13" t="inlineStr">
         <is>
           <t>Alyssa</t>
         </is>
       </c>
-      <c r="E41" s="13" t="inlineStr">
+      <c r="G41" s="13" t="inlineStr">
         <is>
           <t>Titone</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>9366486460</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1781,22 +1933,24 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="D42" s="13" t="inlineStr">
+      <c r="D42" s="13" t="n"/>
+      <c r="E42" s="11" t="n"/>
+      <c r="F42" s="13" t="inlineStr">
         <is>
           <t>Thomas</t>
         </is>
       </c>
-      <c r="E42" s="13" t="inlineStr">
+      <c r="G42" s="13" t="inlineStr">
         <is>
           <t>Wofford</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>8302370080</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>male</t>
         </is>
@@ -1812,22 +1966,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D43" s="13" t="inlineStr">
+      <c r="D43" s="13" t="n"/>
+      <c r="E43" s="11" t="n"/>
+      <c r="F43" s="13" t="inlineStr">
         <is>
           <t>Harlow</t>
         </is>
       </c>
-      <c r="E43" s="13" t="inlineStr">
+      <c r="G43" s="13" t="inlineStr">
         <is>
           <t>Tanner</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>2253337271</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1843,22 +1999,24 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D44" s="13" t="inlineStr">
+      <c r="D44" s="13" t="n"/>
+      <c r="E44" s="11" t="n"/>
+      <c r="F44" s="13" t="inlineStr">
         <is>
           <t>Miriam</t>
         </is>
       </c>
-      <c r="E44" s="13" t="inlineStr">
+      <c r="G44" s="13" t="inlineStr">
         <is>
           <t>Barboza</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>4698317311</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>female</t>
         </is>
@@ -1874,161 +2032,193 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="D45" s="13" t="inlineStr">
+      <c r="D45" s="13" t="n"/>
+      <c r="E45" s="11" t="n"/>
+      <c r="F45" s="13" t="inlineStr">
         <is>
           <t>Sofia</t>
         </is>
       </c>
-      <c r="E45" s="13" t="inlineStr">
+      <c r="G45" s="13" t="inlineStr">
         <is>
           <t>Trevino</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>9568324204</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>female</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="14" t="n"/>
-      <c r="B46" s="15" t="n"/>
-      <c r="C46" s="16" t="n"/>
+      <c r="A46" s="15" t="n"/>
+      <c r="B46" s="16" t="n"/>
+      <c r="C46" s="17" t="n"/>
       <c r="D46" s="17" t="n"/>
-      <c r="E46" s="17" t="n"/>
-      <c r="F46" s="14" t="n"/>
-      <c r="G46" s="14" t="n"/>
+      <c r="E46" s="18" t="n"/>
+      <c r="F46" s="18" t="n"/>
+      <c r="G46" s="18" t="n"/>
+      <c r="H46" s="15" t="n"/>
+      <c r="I46" s="15" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="14" t="n"/>
-      <c r="B47" s="15" t="n"/>
-      <c r="C47" s="16" t="n"/>
+      <c r="A47" s="15" t="n"/>
+      <c r="B47" s="16" t="n"/>
+      <c r="C47" s="17" t="n"/>
       <c r="D47" s="17" t="n"/>
-      <c r="E47" s="17" t="n"/>
-      <c r="F47" s="14" t="n"/>
-      <c r="G47" s="14" t="n"/>
+      <c r="E47" s="18" t="n"/>
+      <c r="F47" s="18" t="n"/>
+      <c r="G47" s="18" t="n"/>
+      <c r="H47" s="15" t="n"/>
+      <c r="I47" s="15" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="14" t="n"/>
-      <c r="B48" s="15" t="n"/>
-      <c r="C48" s="16" t="n"/>
+      <c r="A48" s="15" t="n"/>
+      <c r="B48" s="16" t="n"/>
+      <c r="C48" s="17" t="n"/>
       <c r="D48" s="17" t="n"/>
-      <c r="E48" s="17" t="n"/>
-      <c r="F48" s="14" t="n"/>
-      <c r="G48" s="14" t="n"/>
+      <c r="E48" s="18" t="n"/>
+      <c r="F48" s="18" t="n"/>
+      <c r="G48" s="18" t="n"/>
+      <c r="H48" s="15" t="n"/>
+      <c r="I48" s="15" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="n"/>
-      <c r="B49" s="15" t="n"/>
-      <c r="C49" s="16" t="n"/>
+      <c r="A49" s="15" t="n"/>
+      <c r="B49" s="16" t="n"/>
+      <c r="C49" s="17" t="n"/>
       <c r="D49" s="17" t="n"/>
-      <c r="E49" s="17" t="n"/>
-      <c r="F49" s="14" t="n"/>
-      <c r="G49" s="14" t="n"/>
+      <c r="E49" s="18" t="n"/>
+      <c r="F49" s="18" t="n"/>
+      <c r="G49" s="18" t="n"/>
+      <c r="H49" s="15" t="n"/>
+      <c r="I49" s="15" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="14" t="n"/>
-      <c r="B50" s="15" t="n"/>
-      <c r="C50" s="16" t="n"/>
+      <c r="A50" s="15" t="n"/>
+      <c r="B50" s="16" t="n"/>
+      <c r="C50" s="17" t="n"/>
       <c r="D50" s="17" t="n"/>
-      <c r="E50" s="17" t="n"/>
-      <c r="F50" s="14" t="n"/>
-      <c r="G50" s="14" t="n"/>
+      <c r="E50" s="18" t="n"/>
+      <c r="F50" s="18" t="n"/>
+      <c r="G50" s="18" t="n"/>
+      <c r="H50" s="15" t="n"/>
+      <c r="I50" s="15" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="14" t="n"/>
-      <c r="B51" s="15" t="n"/>
-      <c r="C51" s="16" t="n"/>
+      <c r="A51" s="15" t="n"/>
+      <c r="B51" s="16" t="n"/>
+      <c r="C51" s="17" t="n"/>
       <c r="D51" s="17" t="n"/>
-      <c r="E51" s="17" t="n"/>
-      <c r="F51" s="14" t="n"/>
-      <c r="G51" s="14" t="n"/>
+      <c r="E51" s="18" t="n"/>
+      <c r="F51" s="18" t="n"/>
+      <c r="G51" s="18" t="n"/>
+      <c r="H51" s="15" t="n"/>
+      <c r="I51" s="15" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="14" t="n"/>
-      <c r="B52" s="15" t="n"/>
-      <c r="C52" s="16" t="n"/>
+      <c r="A52" s="15" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="17" t="n"/>
       <c r="D52" s="17" t="n"/>
-      <c r="E52" s="17" t="n"/>
-      <c r="F52" s="14" t="n"/>
-      <c r="G52" s="14" t="n"/>
+      <c r="E52" s="18" t="n"/>
+      <c r="F52" s="18" t="n"/>
+      <c r="G52" s="18" t="n"/>
+      <c r="H52" s="15" t="n"/>
+      <c r="I52" s="15" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="14" t="n"/>
-      <c r="B53" s="15" t="n"/>
-      <c r="C53" s="16" t="n"/>
+      <c r="A53" s="15" t="n"/>
+      <c r="B53" s="16" t="n"/>
+      <c r="C53" s="17" t="n"/>
       <c r="D53" s="17" t="n"/>
-      <c r="E53" s="17" t="n"/>
-      <c r="F53" s="14" t="n"/>
-      <c r="G53" s="14" t="n"/>
+      <c r="E53" s="18" t="n"/>
+      <c r="F53" s="18" t="n"/>
+      <c r="G53" s="18" t="n"/>
+      <c r="H53" s="15" t="n"/>
+      <c r="I53" s="15" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="14" t="n"/>
-      <c r="B54" s="15" t="n"/>
-      <c r="C54" s="16" t="n"/>
+      <c r="A54" s="15" t="n"/>
+      <c r="B54" s="16" t="n"/>
+      <c r="C54" s="17" t="n"/>
       <c r="D54" s="17" t="n"/>
-      <c r="E54" s="17" t="n"/>
-      <c r="F54" s="14" t="n"/>
-      <c r="G54" s="14" t="n"/>
+      <c r="E54" s="18" t="n"/>
+      <c r="F54" s="18" t="n"/>
+      <c r="G54" s="18" t="n"/>
+      <c r="H54" s="15" t="n"/>
+      <c r="I54" s="15" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="14" t="n"/>
-      <c r="B55" s="15" t="n"/>
-      <c r="C55" s="16" t="n"/>
+      <c r="A55" s="15" t="n"/>
+      <c r="B55" s="16" t="n"/>
+      <c r="C55" s="17" t="n"/>
       <c r="D55" s="17" t="n"/>
-      <c r="E55" s="17" t="n"/>
-      <c r="F55" s="14" t="n"/>
-      <c r="G55" s="14" t="n"/>
+      <c r="E55" s="18" t="n"/>
+      <c r="F55" s="18" t="n"/>
+      <c r="G55" s="18" t="n"/>
+      <c r="H55" s="15" t="n"/>
+      <c r="I55" s="15" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="14" t="n"/>
-      <c r="B56" s="15" t="n"/>
-      <c r="C56" s="16" t="n"/>
+      <c r="A56" s="15" t="n"/>
+      <c r="B56" s="16" t="n"/>
+      <c r="C56" s="17" t="n"/>
       <c r="D56" s="17" t="n"/>
-      <c r="E56" s="17" t="n"/>
-      <c r="F56" s="14" t="n"/>
-      <c r="G56" s="14" t="n"/>
+      <c r="E56" s="18" t="n"/>
+      <c r="F56" s="18" t="n"/>
+      <c r="G56" s="18" t="n"/>
+      <c r="H56" s="15" t="n"/>
+      <c r="I56" s="15" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="14" t="n"/>
-      <c r="B57" s="15" t="n"/>
-      <c r="C57" s="16" t="n"/>
+      <c r="A57" s="15" t="n"/>
+      <c r="B57" s="16" t="n"/>
+      <c r="C57" s="17" t="n"/>
       <c r="D57" s="17" t="n"/>
-      <c r="E57" s="17" t="n"/>
-      <c r="F57" s="14" t="n"/>
-      <c r="G57" s="14" t="n"/>
+      <c r="E57" s="18" t="n"/>
+      <c r="F57" s="18" t="n"/>
+      <c r="G57" s="18" t="n"/>
+      <c r="H57" s="15" t="n"/>
+      <c r="I57" s="15" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="14" t="n"/>
-      <c r="B58" s="15" t="n"/>
-      <c r="C58" s="16" t="n"/>
+      <c r="A58" s="15" t="n"/>
+      <c r="B58" s="16" t="n"/>
+      <c r="C58" s="17" t="n"/>
       <c r="D58" s="17" t="n"/>
-      <c r="E58" s="17" t="n"/>
-      <c r="F58" s="14" t="n"/>
-      <c r="G58" s="14" t="n"/>
+      <c r="E58" s="18" t="n"/>
+      <c r="F58" s="18" t="n"/>
+      <c r="G58" s="18" t="n"/>
+      <c r="H58" s="15" t="n"/>
+      <c r="I58" s="15" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="14" t="n"/>
-      <c r="B59" s="15" t="n"/>
-      <c r="C59" s="16" t="n"/>
+      <c r="A59" s="15" t="n"/>
+      <c r="B59" s="16" t="n"/>
+      <c r="C59" s="17" t="n"/>
       <c r="D59" s="17" t="n"/>
-      <c r="E59" s="17" t="n"/>
-      <c r="F59" s="14" t="n"/>
-      <c r="G59" s="14" t="n"/>
+      <c r="E59" s="18" t="n"/>
+      <c r="F59" s="18" t="n"/>
+      <c r="G59" s="18" t="n"/>
+      <c r="H59" s="15" t="n"/>
+      <c r="I59" s="15" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="14" t="n"/>
-      <c r="B60" s="15" t="n"/>
-      <c r="C60" s="16" t="n"/>
+      <c r="A60" s="15" t="n"/>
+      <c r="B60" s="16" t="n"/>
+      <c r="C60" s="17" t="n"/>
       <c r="D60" s="17" t="n"/>
-      <c r="E60" s="17" t="n"/>
-      <c r="F60" s="14" t="n"/>
-      <c r="G60" s="14" t="n"/>
+      <c r="E60" s="18" t="n"/>
+      <c r="F60" s="18" t="n"/>
+      <c r="G60" s="18" t="n"/>
+      <c r="H60" s="15" t="n"/>
+      <c r="I60" s="15" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
